--- a/data/alawechat_cases.xlsx
+++ b/data/alawechat_cases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9347" windowWidth="23040"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9347" windowWidth="23040"/>
   </bookViews>
   <sheets>
     <sheet name="books" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="create" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="chapterList" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="chapterModule" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="planTasks" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -65,14 +66,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
@@ -81,7 +74,60 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -96,7 +142,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -105,43 +151,15 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,31 +173,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -191,6 +185,13 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -201,19 +202,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +334,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,73 +346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,73 +358,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,30 +411,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -449,11 +426,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,8 +474,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,10 +514,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="13" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -525,16 +526,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
@@ -543,115 +544,115 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="15" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="15" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="14" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="14" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,9 +1151,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
@@ -1501,7 +1502,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1587,7 +1588,7 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>{"title":"6月17日接口自动化测试1", "openId":"oSrIn5_dCu_9eFVZmQi4FVA6bAfQ", "nickname":"库里", "textbookId":"20190318154322789b82", "endTime":"2019-06-21 23:59:59", "remark":"发布第一次作业", "sections":"1637538399","images":"", "sign":""}</t>
+          <t>{"title":"#title#", "openId":"oSrIn5_dCu_9eFVZmQi4FVA6bAfQ", "nickname":"库里", "textbookId":"20190318154322789b82", "endTime":"#endTime#", "remark":"发布第一次作业", "sections":"1637538399","images":"", "sign":""}</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
@@ -1602,7 +1603,7 @@
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>{"data":{"homeworkId":"940424243f584c8e99d0c7eb076b640e"},"success":true}</t>
+          <t>{"data":{"homeworkId":"22b7d23307ed42ddaacc3cd50956a841"},"success":true}</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -1617,7 +1618,7 @@
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>{'id': 1851, 'sec_id': '940424243f584c8e99d0c7eb076b640e', 'user_id': '', 'section_id': '1637538399', 'mac': '', 'open_id': 'oSrIn5_dCu_9eFVZmQi4FVA6bAfQ', 'nickname': '库里', 'textbook_id': '20190318154322789b82', 'update_time': datetime.datetime(2019, 7, 2, 10, 48, 10), 'title': '6月17日接口自动化测试1', 'end_time': '2019-06-21 23:59:59', 'remark': '发布第一次作业', 'images': ''}</t>
+          <t>{'id': 1976, 'sec_id': '22b7d23307ed42ddaacc3cd50956a841', 'user_id': '', 'section_id': '1637538399', 'mac': '', 'open_id': 'oSrIn5_dCu_9eFVZmQi4FVA6bAfQ', 'nickname': '库里', 'textbook_id': '20190318154322789b82', 'update_time': datetime.datetime(2019, 7, 15, 16, 8, 3), 'title': '接口自动化测试20190715_160625', 'end_time': '2019-07-20 23:59:59', 'remark': '发布第一次作业', 'images': ''}</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1802,7 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -2002,4 +2003,128 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="2" width="12.3333333333333"/>
+    <col customWidth="1" max="2" min="2" style="2" width="30.2222222222222"/>
+    <col customWidth="1" max="3" min="3" style="2" width="24.7777777777778"/>
+    <col customWidth="1" max="4" min="4" style="2" width="44.3333333333333"/>
+    <col customWidth="1" max="5" min="5" style="2" width="9.555555555555561"/>
+    <col customWidth="1" max="6" min="6" style="2" width="45.4444444444444"/>
+    <col customWidth="1" max="10" min="7" style="2" width="48.1111111111111"/>
+    <col customWidth="1" max="16384" min="11" style="2" width="9"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="28.8" r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>sql_data</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="86.40000000000001" r="2" s="1">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>查询未完成作业单</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>/plan/planTasks.ajax</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>{"userId":"9ed6b17c3a064ed98ef4f64abd3c98d2","mac":"F0:85:C1:D2:27:25","pageNo":"1"}</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>{"data":{"pageInfo":{"total":68,"pageNo":1,"totalPage":4,"pageSize":20},"list":[{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318185208fxMH/6Byiban.jpg","complete":0,"content":"Chapter 3 Getting advice\n","flag":0,"isHomework":1,"planId":"2ef9da63a010468f89d343046bf88950","state":0,"textbookId":"20190318154322789b82Chapter 3","title":"7月12日接口测试3","updateTime":"2019-07-12 10:53:38.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318185208fxMH/6Byiban.jpg","complete":0,"content":"Chapter 3 Getting advice\n","flag":0,"isHomework":1,"planId":"5c75021062cf4a8a93e84de4bc7294e4","state":0,"textbookId":"20190318154322789b82Chapter 3","title":"7月12日接口测试2","updateTime":"2019-07-12 10:42:30.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318185208fxMH/6Byiban.jpg","complete":0,"content":"Chapter 3 Getting advice\n","flag":0,"isHomework":1,"planId":"7cb3a88a73db4021b15fcef1e0cb86dc","state":0,"textbookId":"20190318154322789b82Chapter 3","title":"7月12日接口测试1","updateTime":"2019-07-12 10:21:32.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318184358rMAH/1Byiban.jpg","complete":0,"content":"Chapter 1 Fun with colours\n","flag":0,"isHomework":1,"planId":"da6cb6e4f37f4e0d8f6bf43e174f82ae","state":0,"textbookId":"201903181548038478ceChapter 1","title":"07月11日英语教学作业2","updateTime":"2019-07-11 18:15:32.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318184620c3Jw/1Byiban.jpg","complete":0,"content":"Chapter 3 Wild animals\nChapter 5 Happy moments\n","flag":0,"isHomework":1,"planId":"47569bf9ce104c8b92150ac97619c9fd","state":0,"textbookId":"20190318152838228080Chapter 3,20190318152838228080Chapter 5","title":"05月13日下午","updateTime":"2019-05-13 15:27:50.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/1903181845242hmY/1Ayiban.jpg","complete":0,"content":"Chapter 1 Starting school\n","flag":0,"isHomework":1,"planId":"08ee7b0d48414dafb71082930b30655f","state":0,"textbookId":"20190318152702096860Chapter 1","title":"05月06日英语教学作业","updateTime":"2019-05-06 10:05:22.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318184346zBSw/1Ayiban.jpg","complete":0,"content":"Chapter 1 Nice to meet you!\n","flag":0,"isHomework":1,"planId":"25a2c791a5a741ae9b4acfa07eae57db","state":0,"textbookId":"20190318154731872f8cChapter 1","title":"04月28日英语教学作业","updateTime":"2019-04-28 14:22:38.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/1903181845242hmY/1Ayiban.jpg","complete":0,"content":"Chapter 1 Starting school\n","flag":0,"isHomework":1,"planId":"31ddbe90ab66447cb121c90070c699e7","state":0,"textbookId":"20190318152702096860Chapter 1","title":"04月26日英语教学作业","updateTime":"2019-04-26 15:41:40.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318184406IbNx/2Ayiban.jpg","complete":0,"content":"Chapter 1 Places at school\n","flag":0,"isHomework":0,"planId":"20190611170802763wy182892d258fc4","state":0,"textbookId":"2019031815484229194bChapter 1","title":"06月11日的作业","updateTime":"2019-06-11 17:08:02.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318184406IbNx/2Ayiban.jpg","complete":0,"content":"Chapter 1 Places at school\n","flag":0,"isHomework":0,"planId":"20190611162432301wy3e71f7e346714","state":0,"textbookId":"2019031815484229194bChapter 1","title":"06月11日的作业","updateTime":"2019-06-11 16:24:32.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318184414wuvD/2Byiban.jpg","complete":0,"content":"Chapter 1 Let's help at home\n","flag":0,"isHomework":0,"planId":"20190611154421855wy4bf20ce7f04b4","state":0,"textbookId":"20190318154912158f1dChapter 1","title":"06月11日的作业","updateTime":"2019-06-11 15:44:21.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318184414wuvD/2Byiban.jpg","complete":0,"content":"Chapter 1 Let's help at home\n","flag":0,"isHomework":0,"planId":"20190611153213144wy95f3cd8767014","state":0,"textbookId":"20190318154912158f1dChapter 1","title":"06月11日的作业","updateTime":"2019-06-11 15:32:13.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318184406IbNx/2Ayiban.jpg","complete":0,"content":"Chapter 2 Please be good!\n","flag":0,"isHomework":0,"planId":"20190611152207575wy2e7146a332c54","state":0,"textbookId":"2019031815484229194bChapter 2","title":"06月11日的作业","updateTime":"2019-06-11 15:22:07.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318184406IbNx/2Ayiban.jpg","complete":0,"content":"Chapter 1 Places at school\n","flag":0,"isHomework":0,"planId":"20190611151218904wy1af7e46a2ae04","state":0,"textbookId":"2019031815484229194bChapter 1","title":"06月11日的作业","updateTime":"2019-06-11 15:12:18.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318184346zBSw/1Ayiban.jpg","complete":0,"content":"Chapter 1 Nice to meet you!\n","flag":0,"isHomework":0,"planId":"20190611150436738wy7e3cfa626f9b4","state":0,"textbookId":"20190318154731872f8cChapter 1","title":"06月11日的作业","updateTime":"2019-06-11 15:04:36.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318184346zBSw/1Ayiban.jpg","complete":0,"content":"Chapter 1 Nice to meet you!\n","flag":0,"isHomework":0,"planId":"20190611144909244wy3747b4a8d9c74","state":0,"textbookId":"20190318154731872f8cChapter 1","title":"06月11日的作业","updateTime":"2019-06-11 14:49:09.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318184346zBSw/1Ayiban.jpg","complete":0,"content":"Chapter 1 Nice to meet you!\n","flag":0,"isHomework":0,"planId":"20190611144846739wya9488b8af3064","state":0,"textbookId":"20190318154731872f8cChapter 1","title":"06月11日的作业","updateTime":"2019-06-11 14:48:46.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318184414wuvD/2Byiban.jpg","complete":0,"content":"Chapter 1 Let's help at home\n","flag":0,"isHomework":0,"planId":"20190611144721806wyf5c7d937fa3d4","state":0,"textbookId":"20190318154912158f1dChapter 1","title":"06月11日的作业","updateTime":"2019-06-11 14:47:21.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318184414wuvD/2Byiban.jpg","complete":0,"content":"Chapter 1 Let's help at home\n","flag":0,"isHomework":0,"planId":"20190611144624279wy5734db98296a4","state":0,"textbookId":"20190318154912158f1dChapter 1","title":"06月11日的作业","updateTime":"2019-06-11 14:46:24.0"},{"bookImg":"https://jdwx.alavening.com/alading_file/enDeclaim/190318184414wuvD/2Byiban.jpg","complete":0,"content":"Chapter 1 Let's help at home\n","flag":0,"isHomework":0,"planId":"20190611144426822wyd5232bf130f24","state":0,"textbookId":"20190318154912158f1dChapter 1","title":"06月11日的作业","updateTime":"2019-06-11 14:44:26.0"}]},"success":true}</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="n"/>
+      <c r="J2" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
 </file>
--- a/data/alawechat_cases.xlsx
+++ b/data/alawechat_cases.xlsx
@@ -1603,7 +1603,7 @@
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>{"data":{"homeworkId":"22b7d23307ed42ddaacc3cd50956a841"},"success":true}</t>
+          <t>{"data":{"homeworkId":"097d56374a1c455eba1862b2040e20f9"},"success":true}</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>{'id': 1976, 'sec_id': '22b7d23307ed42ddaacc3cd50956a841', 'user_id': '', 'section_id': '1637538399', 'mac': '', 'open_id': 'oSrIn5_dCu_9eFVZmQi4FVA6bAfQ', 'nickname': '库里', 'textbook_id': '20190318154322789b82', 'update_time': datetime.datetime(2019, 7, 15, 16, 8, 3), 'title': '接口自动化测试20190715_160625', 'end_time': '2019-07-20 23:59:59', 'remark': '发布第一次作业', 'images': ''}</t>
+          <t>{'id': 1977, 'sec_id': '097d56374a1c455eba1862b2040e20f9', 'user_id': '', 'section_id': '1637538399', 'mac': '', 'open_id': 'oSrIn5_dCu_9eFVZmQi4FVA6bAfQ', 'nickname': '库里', 'textbook_id': '20190318154322789b82', 'update_time': datetime.datetime(2019, 7, 15, 16, 34, 33), 'title': '接口自动化测试20190715_163254', 'end_time': '2019-07-20 23:59:59', 'remark': '发布第一次作业', 'images': ''}</t>
         </is>
       </c>
     </row>

--- a/data/alawechat_cases.xlsx
+++ b/data/alawechat_cases.xlsx
@@ -2404,7 +2404,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>{"data":{"homeworkId":"92e607b6a0e4408d952e8d2e817024d3"},"success":true}</t>
+          <t>{"data":{"homeworkId":"8ff223d17922476fa94599854ec9abf4"},"success":true}</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
